--- a/RQ3/result/GA/GA_5.xlsx
+++ b/RQ3/result/GA/GA_5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FDD41-4639-4695-88C2-E18191C88B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41697DE-5946-456E-B8FF-F1A0DBFD2877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -264,163 +252,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the functionalitys of the two API are different, if you wanna display the string, you need to print it, not just read it.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because getDeclaredConstructors() can return the private constructors</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/lang/Class.html#getDeclaredConstructors--</t>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>If a thread-safe implementation is not needed, it is recommended to use HashMap in place of Hashtable.</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/Hashtable.html</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Without buffering, each invocation of a print() method would cause characters to be converted into bytes that would then be written immediately to the file, which can be very inefficient</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/io/BufferedWriter.html</t>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>If you want to close or terminate your java application before this, your only option is to use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF666666"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>System.exit(int status)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://examples.javacodegeeks.com/desktop-java/swing/close-application-properly/</t>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>java.sql.DriverManager.registerDriver(java.sql.Driver) registers the given driver with the DriverManager.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>java.lang.StringBuilder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.javatpoint.com/difference-between-stringbuffer-and-stringbuilder</t>
-  </si>
-  <si>
-    <t>StringBuilder is more efficient than StringBuffer.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you’re writing Java code, always prefer LinkedHashMap over HashMap. Even if you aren’t iterating the collection, it’s one less thing that can go wrong.</t>
-  </si>
-  <si>
-    <t>https://publicobject.com/2016/02/08/linkedhashmap-is-always-better-than-hashmap/</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t> java.sql.SQLException.getNextException() retrieves the exception chained to this SQLException object by setNextException(SQLException ex).</t>
-  </si>
-  <si>
-    <t>This method may block while waiting for input to scan, even if a previous invocation of hasNext() returned true.</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/Scanner.html#next--</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FileInputStream read streams of raw bytes such as image data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, mp4 is just a collection of image.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Because retrieving the sorted values in hashmap may be implemented by arraylist. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baeldung.com/java-hashmap-sort</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -436,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,33 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF474747"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF666666"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -527,18 +332,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,24 +350,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,12 +681,10 @@
     <col min="6" max="6" width="26.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="58.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -906,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -929,23 +715,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -953,37 +724,31 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1">
         <v>51</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -991,40 +756,31 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>378</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1032,43 +788,31 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
         <v>75</v>
       </c>
-      <c r="K4" s="1">
-        <v>505</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1076,40 +820,31 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>220</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1117,37 +852,31 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1155,40 +884,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>229</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1196,43 +916,31 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1">
         <v>130</v>
       </c>
-      <c r="K8" s="1">
-        <v>200</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1240,40 +948,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>592</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1281,37 +980,31 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1">
         <v>130</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1319,40 +1012,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>484</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1360,37 +1044,31 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1">
         <v>35</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1398,52 +1076,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>649</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>91</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" location="getDeclaredConstructors--" display="https://docs.oracle.com/javase/8/docs/api/java/lang/Class.html - getDeclaredConstructors--" xr:uid="{14DCD531-7F79-4308-B33B-8497E61F4EE8}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{5BA0119B-58AE-4D29-AE94-324CB2A9F12D}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{2248F81B-C25B-4C3A-AD2E-B54AC516C92C}"/>
-    <hyperlink ref="N7" r:id="rId4" xr:uid="{1F339E8D-0E04-4609-921E-AF88EC8A8A6C}"/>
-    <hyperlink ref="N8" r:id="rId5" xr:uid="{842A2086-ECC7-4AD8-9914-0D0641411BB8}"/>
-    <hyperlink ref="N9" r:id="rId6" xr:uid="{626B3F2E-9112-4361-BB1F-54C750AE8682}"/>
-    <hyperlink ref="N11" r:id="rId7" location="next--" display="https://docs.oracle.com/javase/8/docs/api/java/util/Scanner.html - next--" xr:uid="{05620764-782C-42A6-890B-F48C2740E8E1}"/>
-    <hyperlink ref="N13" r:id="rId8" xr:uid="{51C72990-5A6F-458B-AC47-57C6CC457562}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GA/GA_5.xlsx
+++ b/RQ3/result/GA/GA_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41697DE-5946-456E-B8FF-F1A0DBFD2877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFCF95-6DEA-48FA-B4C2-FAEC1ABDEDA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -261,6 +257,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -724,25 +724,25 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1">
         <v>51</v>
@@ -756,25 +756,25 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>378</v>
@@ -788,25 +788,25 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1">
         <v>75</v>
@@ -820,25 +820,25 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>220</v>
@@ -852,25 +852,25 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1">
         <v>30</v>
@@ -884,25 +884,25 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>229</v>
@@ -916,25 +916,25 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1">
         <v>130</v>
@@ -948,25 +948,25 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J9">
         <v>592</v>
@@ -980,25 +980,25 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1">
         <v>130</v>
@@ -1012,25 +1012,25 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>484</v>
@@ -1044,25 +1044,25 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1">
         <v>35</v>
@@ -1076,25 +1076,25 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>649</v>
